--- a/1-inputs/write/Formatting.xlsx
+++ b/1-inputs/write/Formatting.xlsx
@@ -458,7 +458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.21484375" customWidth="1"/>
+    <col min="1" max="1" width="41.421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
